--- a/Supplementary/Supplementary-2.xlsx
+++ b/Supplementary/Supplementary-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -330,35 +330,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -381,32 +355,38 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times Roman"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Times Roman"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,12 +397,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -573,63 +547,28 @@
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,76 +577,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -944,30 +918,31 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -986,720 +961,720 @@
       <c r="F2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>77</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>57</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <f t="shared" ref="F3:F35" si="0">D3-E3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>407</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>305</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>1089</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <v>816</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <v>304</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <v>228</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>36</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>27</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <v>301</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <v>225</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <v>47</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>35</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>161</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <v>120</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <v>158</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="15">
         <v>118</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <v>499</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="15">
         <v>374</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <v>66</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="15">
         <v>49</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <v>527</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="15">
         <v>395</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="14">
         <v>287</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="15">
         <v>215</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <v>147</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="15">
         <v>110</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="14">
         <v>507</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <v>380</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="14">
         <v>369</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="15">
         <v>276</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="14">
         <v>512</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="15">
         <v>384</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>498</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="15">
         <v>373</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="14">
         <v>86</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="15">
         <v>64</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="14">
         <v>375</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="15">
         <v>281</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="15">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="14">
         <v>177</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="15">
         <v>132</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="14">
         <v>177</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="15">
         <v>132</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="14">
         <v>493</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="15">
         <v>369</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="14">
         <v>95</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="15">
         <v>71</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="14">
         <v>258</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="15">
         <v>193</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="15">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="14">
         <v>465</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="15">
         <v>348</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="15">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="14">
         <v>378</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="15">
         <v>283</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="15">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="14">
         <v>132</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="15">
         <v>99</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="14">
         <v>501</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="15">
         <v>375</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="15">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="14">
         <v>118</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="15">
         <v>88</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="14">
         <v>184</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="15">
         <v>138</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="14">
         <v>56</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="15">
         <v>42</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="14">
         <v>79</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="15">
         <v>59</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="15" t="s">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="19">
+      <c r="C36" s="13"/>
+      <c r="D36" s="18">
         <v>9566</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <f>SUM(E20:E35)+SUM(E3:E19)</f>
         <v>7161</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <f>SUM(F20:F35)+SUM(F3:F19)</f>
         <v>2405</v>
       </c>
@@ -1716,1405 +1691,1405 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="6.5" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="24"/>
+    <col min="1" max="12" width="9.5" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:12" ht="11" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
         <v>500</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="36">
         <v>0.96</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="36">
         <v>0.94</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="36">
         <v>0.94</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="36">
         <v>0.94</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="36">
         <v>6.79</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="37">
         <v>0.94</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="37">
         <v>0.92</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="37">
         <v>0.92</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="37">
         <v>0.92</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="37">
         <v>11.19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="36">
         <v>0.99</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="36">
         <v>0.98</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="36">
         <v>0.98</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="36">
         <v>0.98</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="36">
         <v>2.86</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="37">
         <v>0.96</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="37">
         <v>0.94</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="37">
         <v>0.93</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="37">
         <v>0.94</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="37">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="36">
         <v>0.95</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="36">
         <v>0.93</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="36">
         <v>0.93</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="36">
         <v>0.93</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="36">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="37">
         <v>0.94</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="37">
         <v>0.92</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="37">
         <v>0.91</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="37">
         <v>0.91</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="37">
         <v>10.01</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40">
         <v>400</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="42">
         <v>0.93</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="42">
         <v>0.92</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="42">
         <v>0.92</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="42">
         <v>0.92</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="42">
         <v>7.22</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="42">
         <v>0.94</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="42">
         <v>0.92</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="42">
         <v>0.92</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="42">
         <v>0.93</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="42">
         <v>10.63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="42">
         <v>0.99</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="42">
         <v>0.96</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="42">
         <v>0.97</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="42">
         <v>0.96</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="42">
         <v>3.7</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="42">
         <v>0.95</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="42">
         <v>0.94</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="42">
         <v>0.93</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="42">
         <v>0.93</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="42">
         <v>7.95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="42">
         <v>0.94</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="42">
         <v>0.91</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="42">
         <v>0.92</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="42">
         <v>0.92</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="42">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="42">
         <v>0.94</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="42">
         <v>0.91</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="42">
         <v>0.92</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="42">
         <v>0.92</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="42">
         <v>11.88</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
         <v>300</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="36">
         <v>0.93</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="36">
         <v>0.93</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="36">
         <v>0.92</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="36">
         <v>0.93</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="36">
         <v>10.050000000000001</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="37">
         <v>0.9</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="37">
         <v>0.89</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="37">
         <v>0.88</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="37">
         <v>0.89</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="37">
         <v>14.87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="36">
         <v>0.98</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="36">
         <v>0.96</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="36">
         <v>0.97</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="36">
         <v>0.97</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="36">
         <v>3.04</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="37">
         <v>0.95</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="37">
         <v>0.93</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="37">
         <v>0.93</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="37">
         <v>0.93</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="37">
         <v>9.48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="36">
         <v>0.94</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="36">
         <v>0.9</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="36">
         <v>0.91</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="36">
         <v>0.9</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="36">
         <v>11.56</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="37">
         <v>0.93</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="37">
         <v>0.91</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="37">
         <v>0.9</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="37">
         <v>0.9</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="37">
         <v>13.38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40">
         <v>250</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="42">
         <v>0.94</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="42">
         <v>0.92</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="42">
         <v>0.92</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="42">
         <v>0.91</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="42">
         <v>9.77</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="42">
         <v>0.94</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="42">
         <v>0.91</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="42">
         <v>0.91</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="42">
         <v>0.91</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="42">
         <v>11.57</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38" t="s">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="42">
         <v>0.98</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="42">
         <v>0.97</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="42">
         <v>0.97</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="42">
         <v>0.97</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="42">
         <v>4.03</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="42">
         <v>0.95</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="42">
         <v>0.94</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="42">
         <v>0.92</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="42">
         <v>0.93</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="42">
         <v>9.41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="42">
         <v>0.93</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="42">
         <v>0.92</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="42">
         <v>0.91</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="42">
         <v>0.91</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="42">
         <v>11.69</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="42">
         <v>0.93</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="42">
         <v>0.9</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="42">
         <v>0.9</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="42">
         <v>0.89</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="42">
         <v>13.64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
         <v>200</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="36">
         <v>0.94</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="36">
         <v>0.91</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="36">
         <v>0.91</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="36">
         <v>0.91</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="36">
         <v>10.73</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="37">
         <v>0.9</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="37">
         <v>0.9</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="37">
         <v>0.89</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="37">
         <v>0.89</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="37">
         <v>15.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32" t="s">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="36">
         <v>0.97</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="36">
         <v>0.96</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <v>0.96</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="36">
         <v>0.96</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="36">
         <v>4.41</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="37">
         <v>0.95</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="37">
         <v>0.93</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="37">
         <v>0.92</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="37">
         <v>0.92</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="37">
         <v>9.99</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="36">
         <v>0.93</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="36">
         <v>0.89</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="36">
         <v>0.9</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="36">
         <v>0.89</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="36">
         <v>13.56</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="37">
         <v>0.92</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="37">
         <v>0.89</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="37">
         <v>0.89</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="37">
         <v>0.89</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="37">
         <v>14.01</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40">
         <v>150</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="42">
         <v>0.93</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="42">
         <v>0.9</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="42">
         <v>0.9</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="42">
         <v>0.9</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="42">
         <v>10.220000000000001</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="42">
         <v>0.93</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="42">
         <v>0.9</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="42">
         <v>0.91</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="42">
         <v>0.9</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="42">
         <v>12.87</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="42">
         <v>0.97</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="42">
         <v>0.95</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="42">
         <v>0.94</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="42">
         <v>0.95</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="42">
         <v>5.8</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="42">
         <v>0.95</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="42">
         <v>0.93</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="42">
         <v>0.91</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="42">
         <v>0.92</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="42">
         <v>10.41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="42">
         <v>0.93</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="42">
         <v>0.89</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="42">
         <v>0.9</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="42">
         <v>0.89</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="42">
         <v>12</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="42">
         <v>0.91</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="42">
         <v>0.88</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="42">
         <v>0.89</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="42">
         <v>0.88</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="42">
         <v>13.77</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
         <v>100</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="36">
         <v>0.93</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="36">
         <v>0.89</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="36">
         <v>0.89</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="36">
         <v>0.89</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="43">
         <v>10.4</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="37">
         <v>0.92</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="37">
         <v>0.9</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="37">
         <v>0.9</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="37">
         <v>0.89</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="37">
         <v>12.83</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="32" t="s">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="36">
         <v>0.96</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="36">
         <v>0.95</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="36">
         <v>0.95</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="36">
         <v>0.95</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="36">
         <v>6.4</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="37">
         <v>0.94</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="37">
         <v>0.93</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="37">
         <v>0.91</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="37">
         <v>0.92</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="37">
         <v>11.37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="36">
         <v>0.92</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="36">
         <v>0.88</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="36">
         <v>0.88</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="36">
         <v>0.88</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="36">
         <v>15.04</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="37">
         <v>0.91</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="37">
         <v>0.87</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="37">
         <v>0.87</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="37">
         <v>0.87</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="37">
         <v>14.36</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40">
         <v>50</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="42">
         <v>0.86</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="42">
         <v>0.85</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="42">
         <v>0.84</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="42">
         <v>0.84</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="42">
         <v>20.21</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="42">
         <v>0.9</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="42">
         <v>0.88</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="42">
         <v>0.87</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="42">
         <v>0.87</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="42">
         <v>15.05</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="42">
         <v>0.94</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="42">
         <v>0.9</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="42">
         <v>0.9</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="42">
         <v>0.9</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="44">
         <v>11.64</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="42">
         <v>0.92</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="42">
         <v>0.88</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="42">
         <v>0.88</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="42">
         <v>0.88</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="42">
         <v>13.82</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="42">
         <v>0.9</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="42">
         <v>0.89</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="42">
         <v>0.86</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="42">
         <v>0.86</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="42">
         <v>16.71</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="42">
         <v>0.86</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="42">
         <v>0.82</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="42">
         <v>0.79</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="42">
         <v>0.79</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="42">
         <v>25.44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
         <v>40</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="36">
         <v>0.79</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="36">
         <v>0.78</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="36">
         <v>0.78</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="36">
         <v>0.78</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="36">
         <v>32.06</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="37">
         <v>0.85</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="37">
         <v>0.83</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="37">
         <v>0.83</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="37">
         <v>0.84</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="37">
         <v>28.04</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="32" t="s">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="36">
         <v>0.94</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="36">
         <v>0.88</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="36">
         <v>0.9</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="36">
         <v>0.89</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="36">
         <v>12.54</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="37">
         <v>0.92</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="37">
         <v>0.87</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="37">
         <v>0.88</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="37">
         <v>0.87</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="37">
         <v>14.95</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="32" t="s">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="36">
         <v>0.86</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="36">
         <v>0.82</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="36">
         <v>0.83</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="36">
         <v>0.82</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="36">
         <v>24.99</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="37">
         <v>0.84</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="37">
         <v>0.82</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="37">
         <v>0.78</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="37">
         <v>0.79</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="37">
         <v>29.42</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="42">
         <v>0.73</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="42">
         <v>0.71</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="42">
         <v>0.69</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="42">
         <v>0.72</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="42">
         <v>29.25</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="42">
         <v>0.82</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="42">
         <v>0.81</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="42">
         <v>0.81</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="42">
         <v>0.81</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="42">
         <v>34.130000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="38" t="s">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="42">
         <v>0.93</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="42">
         <v>0.88</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="42">
         <v>0.88</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="42">
         <v>0.88</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="42">
         <v>16.36</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="42">
         <v>0.91</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="42">
         <v>0.86</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="42">
         <v>0.87</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="42">
         <v>0.86</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="42">
         <v>16.73</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="36"/>
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="42">
         <v>0.85</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="42">
         <v>0.81</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="42">
         <v>0.81</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="42">
         <v>0.81</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="42">
         <v>23.87</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="42">
         <v>0.8</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="42">
         <v>0.79</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="42">
         <v>0.72</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="42">
         <v>0.73</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="42">
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
         <v>20</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="36">
         <v>0.6</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="36">
         <v>0.59</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="36">
         <v>0.59</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="36">
         <v>51.01</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="37">
         <v>0.76</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="37">
         <v>0.73</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="37">
         <v>0.72</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="37">
         <v>0.73</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="37">
         <v>45.99</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="36">
         <v>0.91</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="36">
         <v>0.86</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="36">
         <v>0.86</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="36">
         <v>0.85</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="36">
         <v>18.059999999999999</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="37">
         <v>0.84</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="37">
         <v>0.83</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="37">
         <v>0.8</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="37">
         <v>0.81</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="37">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
-      <c r="B36" s="32" t="s">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="36">
         <v>0.77</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="36">
         <v>0.74</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="36">
         <v>0.72</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="36">
         <v>0.72</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="36">
         <v>48.78</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="37">
         <v>0.74</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="37">
         <v>0.74</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="37">
         <v>0.68</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="37">
         <v>0.69</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="37">
         <v>47.64</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40">
         <v>10</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="42">
         <v>0.51</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="42">
         <v>0.52</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="42">
         <v>0.51</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="42">
         <v>66.02</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="42">
         <v>0.51</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="42">
         <v>0.5</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="42">
         <v>0.52</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="42">
         <v>81.56</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="38" t="s">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="42">
         <v>0.79</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="42">
         <v>0.73</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="42">
         <v>0.67</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="42">
         <v>0.68</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="42">
         <v>36.07</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="42">
         <v>0.7</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="42">
         <v>0.6</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K38" s="39">
+      <c r="K38" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="42">
         <v>60.11</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="36"/>
-      <c r="B39" s="38" t="s">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="42">
         <v>0.63</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="42">
         <v>0.6</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="42">
         <v>0.53</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="42">
         <v>0.53</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="42">
         <v>64.69</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="42">
         <v>0.5</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="42">
         <v>0.4</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="42">
         <v>0.36</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="42">
         <v>0.35</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="42">
         <v>88.19</v>
       </c>
     </row>
@@ -3147,480 +3122,479 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="7.5" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="46">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="46">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="46">
         <v>8.57</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="46">
         <v>8.57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="46">
         <v>7.35</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="46">
         <v>7.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="46">
         <v>6.3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="46">
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="46">
         <v>5.4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="46">
         <v>5.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="46">
         <v>4.63</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="46">
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="46">
         <v>3.97</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="46">
         <v>3.9769999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="46">
         <v>3.41</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="46">
         <v>3.411</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
         <v>16</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="46">
         <v>2.92</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="46">
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="46">
         <v>2.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="46">
         <v>2.508</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="46">
         <v>2.15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="46">
         <v>2.1509999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46">
         <v>22</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="46">
         <v>1.84</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="46">
         <v>1.8440000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
         <v>24</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="46">
         <v>1.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="46">
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46">
         <v>26</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="46">
         <v>1.35</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="46">
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46">
         <v>28</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="46">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="46">
         <v>1.163</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46">
         <v>30</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="46">
         <v>0.99</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="46">
         <v>0.997</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
         <v>32</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="46">
         <v>0.85</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="46">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
         <v>34</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="46">
         <v>0.73</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="46">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46">
         <v>36</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="46">
         <v>0.62</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="46">
         <v>0.629</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46">
         <v>38</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="46">
         <v>0.53</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="46">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
         <v>40</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="46">
         <v>0.46</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="46">
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46">
         <v>42</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="46">
         <v>0.39</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="46">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46">
         <v>44</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="46">
         <v>0.34</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="46">
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46">
         <v>46</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="46">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="46">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46">
         <v>48</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="46">
         <v>0.25</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="46">
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46">
         <v>50</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="46">
         <v>0.21</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="46">
         <v>0.214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46">
         <v>52</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="46">
         <v>0.18</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="46">
         <v>0.184</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46">
         <v>54</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="46">
         <v>0.15</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="46">
         <v>0.157</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46">
         <v>56</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="46">
         <v>0.13</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="46">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46">
         <v>58</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="46">
         <v>0.11</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="46">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46">
         <v>60</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="46">
         <v>0.1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46">
         <v>62</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="46">
         <v>0.1</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46">
         <v>64</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="46">
         <v>0.1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46">
         <v>66</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="46">
         <v>0.1</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="46">
         <v>68</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="46">
         <v>0.1</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="46">
         <v>70</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="46">
         <v>0.1</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46">
         <v>72</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="46">
         <v>0.1</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="46">
         <v>74</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="46">
         <v>0.1</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="46">
         <v>76</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="46">
         <v>0.1</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46">
         <v>78</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="46">
         <v>0.1</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="46">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="46">
         <v>80</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="46">
         <v>0.1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="46">
         <v>0.1</v>
       </c>
     </row>
@@ -3633,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3643,79 +3617,79 @@
     <col min="3" max="3" width="154.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="65" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="104" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="91" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="65" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="104" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
